--- a/dataset/데이터셋 유형 최종본.xlsx
+++ b/dataset/데이터셋 유형 최종본.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munh3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munh3\Downloads\데이터셋 최종+매크로 코드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC1FB5D-000B-41C6-A4A2-F4DA3CEC4226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A4EDA5-44D4-43C4-BB28-7E743C433E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15062,7 +15062,7 @@
   <dimension ref="A1:GK4776"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
